--- a/geiger.xlsx
+++ b/geiger.xlsx
@@ -19,8 +19,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
-    <numFmt numFmtId="183" formatCode="0.000000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -107,8 +107,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1276,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89:B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3430,7 +3430,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <f>206*1000000*0.035^2 *3.14159</f>
@@ -3454,7 +3454,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90">
         <f t="shared" ref="C90:C96" si="3">206*1000000*0.035^2 *3.14159</f>
@@ -3478,7 +3478,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91">
         <f t="shared" si="3"/>
@@ -3502,7 +3502,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92">
         <f t="shared" si="3"/>
@@ -3526,7 +3526,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C93">
         <f t="shared" si="3"/>
@@ -3550,7 +3550,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94">
         <f t="shared" si="3"/>
@@ -3574,7 +3574,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C95">
         <f t="shared" si="3"/>
@@ -3598,7 +3598,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C96">
         <f t="shared" si="3"/>
@@ -3622,7 +3622,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97">
         <f>206*1000000*0.04^2 *3.14159</f>
@@ -3646,7 +3646,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C98">
         <f t="shared" ref="C98:C104" si="4">206*1000000*0.04^2 *3.14159</f>
@@ -3670,7 +3670,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C99">
         <f t="shared" si="4"/>
@@ -3694,7 +3694,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100">
         <f t="shared" si="4"/>
@@ -3718,7 +3718,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <f t="shared" si="4"/>
@@ -3742,7 +3742,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102">
         <f t="shared" si="4"/>
@@ -3766,7 +3766,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103">
         <f t="shared" si="4"/>
@@ -3790,7 +3790,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104">
         <f t="shared" si="4"/>
@@ -3814,7 +3814,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105">
         <f>206*1000000*0.08^2 *3.14159</f>
